--- a/DAT101x Lab_Exploring Data_final.xlsx
+++ b/DAT101x Lab_Exploring Data_final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microsoft Data Science Proffesional Program\Course 1_Data Science Orientation\To_Be_Added_On_GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biljana\Desktop\Data_Science_Orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptive Statistics" sheetId="4" r:id="rId1"/>
@@ -23,8 +23,7 @@
     <sheet name="Scatter plot" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">'Revenue Histogram'!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.1" hidden="1">'Revenue Histogram'!$B$2:$B$32</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Revenue Histogram'!$B$2:$B$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -496,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -515,12 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,6 +532,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,6 +571,18 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -589,18 +601,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -630,56 +630,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Revenue Histogram</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{983A9351-2F9F-4D46-A6B5-DC6DB0E7FAB8}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1176,7 +1126,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1668,6 +1618,56 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue Histogram</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{983A9351-2F9F-4D46-A6B5-DC6DB0E7FAB8}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3281,7 +3281,7 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Chart 3"/>
@@ -3293,7 +3293,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -3416,11 +3416,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:J33" totalsRowCount="1">
   <autoFilter ref="B1:J32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Date" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="1" name="Date" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="2" name="Location"/>
     <tableColumn id="3" name="Lemon"/>
     <tableColumn id="4" name="Orange"/>
-    <tableColumn id="8" name="Sales" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="8" name="Sales" dataDxfId="2" totalsRowDxfId="1">
       <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Temperature"/>
@@ -3713,7 +3713,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
@@ -3740,11 +3740,11 @@
         <v>9</v>
       </c>
       <c r="G1" s="10"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="10"/>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="10"/>
@@ -3788,10 +3788,10 @@
       <c r="G3" s="8">
         <v>196.93548387096774</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>78.870967741935488</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -3950,10 +3950,10 @@
       <c r="I7" s="8">
         <v>4.0966810589701419</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>19.821027175188721</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -4553,7 +4553,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,7 +4563,7 @@
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4842,13 +4842,13 @@
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="2">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="26">
         <f>C17+C18*80+C19*110+C20*0.35</f>
         <v>202.66339043385412</v>
       </c>
@@ -4858,13 +4858,13 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="2">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26">
         <f>C17+C18*80+C19*120+C20*0.35</f>
         <v>221.83185946798167</v>
       </c>
@@ -6261,15 +6261,15 @@
     <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="F33" s="4"/>
-      <c r="J33" s="25">
+      <c r="J33" s="23">
         <f>SUM(Table2[Revenue])</f>
         <v>2138</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G32">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Answers!A1" display="Go Back to Answers:"/>
@@ -6290,7 +6290,9 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6404,18 +6406,18 @@
       <c r="A1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>41</v>
       </c>
       <c r="C2" s="5">
@@ -6428,155 +6430,155 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>41.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>46.75</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>58.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>69.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>52.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>57.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>59.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>70.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>56.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>51.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>65.5</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>95.5</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>111.5</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>103.5</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>56.5</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>66.5</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>93.5</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>101.5</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>134.5</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>106.75</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>60.199999999999996</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>55.65</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>58.099999999999994</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>50.75</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>43.05</v>
       </c>
     </row>
@@ -6607,7 +6609,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>79</v>
       </c>
     </row>

--- a/DAT101x Lab_Exploring Data_final.xlsx
+++ b/DAT101x Lab_Exploring Data_final.xlsx
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -532,13 +532,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,7 +674,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1166,7 +1166,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4842,13 +4841,13 @@
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="24">
         <f>C17+C18*80+C19*110+C20*0.35</f>
         <v>202.66339043385412</v>
       </c>
@@ -4858,13 +4857,13 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="24">
         <f>C17+C18*80+C19*120+C20*0.35</f>
         <v>221.83185946798167</v>
       </c>
@@ -6291,7 +6290,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6300,7 +6299,7 @@
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="27">
         <f>Table2[[#Totals],[Revenue]]</f>
         <v>2138</v>
       </c>
